--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,10 +46,19 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>shit</t>
   </si>
   <si>
     <t>war</t>
@@ -64,15 +73,12 @@
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -82,118 +88,130 @@
     <t>negative</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>key</t>
   </si>
   <si>
     <t>increase</t>
@@ -202,27 +220,21 @@
     <t>share</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
@@ -230,9 +242,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -590,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,16 +689,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -709,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -759,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6896551724137931</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -777,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>0.9347826086956522</v>
@@ -809,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6815068493150684</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>0.9230769230769231</v>
@@ -859,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5526315789473685</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.36</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3422818791946309</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8636363636363636</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3372093023255814</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C10">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3121693121693122</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L11">
         <v>30</v>
       </c>
-      <c r="K11">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L11">
-        <v>23</v>
-      </c>
       <c r="M11">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2857142857142857</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8203125</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L12">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2444444444444444</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>68</v>
+        <v>336</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1706349206349206</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.8203125</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,479 +1268,527 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.07774798927613941</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>135</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L15">
+        <v>47</v>
+      </c>
+      <c r="M15">
+        <v>47</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.1468253968253968</v>
+      </c>
+      <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>215</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L16">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.09115281501340483</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>339</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L17">
+        <v>37</v>
+      </c>
+      <c r="M17">
+        <v>37</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.775</v>
+      </c>
+      <c r="L18">
+        <v>93</v>
+      </c>
+      <c r="M18">
+        <v>93</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="L19">
+        <v>109</v>
+      </c>
+      <c r="M19">
+        <v>109</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="L20">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>48</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.74375</v>
+      </c>
+      <c r="L21">
+        <v>119</v>
+      </c>
+      <c r="M21">
+        <v>119</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L22">
+        <v>37</v>
+      </c>
+      <c r="M22">
+        <v>37</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="L23">
+        <v>76</v>
+      </c>
+      <c r="M23">
+        <v>76</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.6702127659574468</v>
+      </c>
+      <c r="L27">
+        <v>63</v>
+      </c>
+      <c r="M27">
+        <v>63</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L28">
+        <v>32</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.6214099216710183</v>
+      </c>
+      <c r="L29">
+        <v>238</v>
+      </c>
+      <c r="M29">
+        <v>238</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.5823529411764706</v>
+      </c>
+      <c r="L30">
+        <v>198</v>
+      </c>
+      <c r="M30">
+        <v>198</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.58</v>
+      </c>
+      <c r="L31">
         <v>29</v>
       </c>
-      <c r="D15">
+      <c r="M31">
         <v>29</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>344</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L15">
-        <v>19</v>
-      </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L16">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>21</v>
       </c>
-      <c r="M16">
-        <v>21</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17">
-        <v>0.7676056338028169</v>
-      </c>
-      <c r="L17">
-        <v>109</v>
-      </c>
-      <c r="M17">
-        <v>109</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="L18">
-        <v>92</v>
-      </c>
-      <c r="M18">
-        <v>92</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19">
-        <v>0.7659574468085106</v>
-      </c>
-      <c r="L19">
-        <v>36</v>
-      </c>
-      <c r="M19">
-        <v>36</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20">
-        <v>0.7452830188679245</v>
-      </c>
-      <c r="L20">
-        <v>79</v>
-      </c>
-      <c r="M20">
-        <v>79</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>0.7254901960784313</v>
-      </c>
-      <c r="L21">
-        <v>37</v>
-      </c>
-      <c r="M21">
-        <v>37</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>0.70625</v>
-      </c>
-      <c r="L22">
-        <v>113</v>
-      </c>
-      <c r="M22">
-        <v>113</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L23">
-        <v>44</v>
-      </c>
-      <c r="M23">
-        <v>44</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>0.6702127659574468</v>
-      </c>
-      <c r="L24">
-        <v>63</v>
-      </c>
-      <c r="M24">
-        <v>63</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="L25">
-        <v>23</v>
-      </c>
-      <c r="M25">
-        <v>23</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>0.6005221932114883</v>
-      </c>
-      <c r="L26">
-        <v>230</v>
-      </c>
-      <c r="M26">
-        <v>230</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27">
-        <v>0.6</v>
-      </c>
-      <c r="L27">
-        <v>24</v>
-      </c>
-      <c r="M27">
-        <v>24</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L28">
-        <v>20</v>
-      </c>
-      <c r="M28">
-        <v>20</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L29">
-        <v>28</v>
-      </c>
-      <c r="M29">
-        <v>28</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30">
-        <v>0.5764705882352941</v>
-      </c>
-      <c r="L30">
-        <v>196</v>
-      </c>
-      <c r="M30">
-        <v>196</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31">
-        <v>0.5617977528089888</v>
-      </c>
-      <c r="L31">
-        <v>50</v>
-      </c>
-      <c r="M31">
-        <v>50</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.5581395348837209</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1748,16 +1805,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1769,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.54</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1795,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.5288135593220339</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L35">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1821,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1847,21 +1904,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.46875</v>
+        <v>0.5186440677966102</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1873,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.4657534246575342</v>
+        <v>0.4895397489539749</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1899,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.4615384615384616</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1925,21 +1982,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.4602510460251046</v>
+        <v>0.475</v>
       </c>
       <c r="L40">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1951,21 +2008,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.358974358974359</v>
+        <v>0.46875</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1977,47 +2034,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.3285714285714286</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>23</v>
-      </c>
-      <c r="M42">
-        <v>23</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>47</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.3114754098360656</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2029,21 +2086,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.1076555023923445</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L44">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2055,21 +2112,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>373</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.08173076923076923</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2081,21 +2138,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>382</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.06727828746177369</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2107,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>305</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.06599552572706935</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="L47">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M47">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2133,21 +2190,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>835</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.04994450610432852</v>
+        <v>0.09375</v>
       </c>
       <c r="L48">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M48">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2159,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>856</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.03806228373702422</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M49">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2185,111 +2242,137 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.03543913713405239</v>
+        <v>0.06116207951070336</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>626</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.02289719626168224</v>
+        <v>0.04217536071032187</v>
       </c>
       <c r="L51">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M51">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>2091</v>
+        <v>863</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.0145114479200258</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L52">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N52">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>3056</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K53">
-        <v>0.008450704225352112</v>
+        <v>0.02986467568828745</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N53">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>3168</v>
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54">
+        <v>0.0157860824742268</v>
+      </c>
+      <c r="L54">
+        <v>49</v>
+      </c>
+      <c r="M54">
+        <v>52</v>
+      </c>
+      <c r="N54">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O54">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3055</v>
       </c>
     </row>
   </sheetData>
